--- a/biology/Botanique/Asperula_aristata/Asperula_aristata.xlsx
+++ b/biology/Botanique/Asperula_aristata/Asperula_aristata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asperula aristata, l'Aspérule aristée ou Aspérule à fleurs longues est une plante herbacée de la famille des Rubiacées.
 </t>
@@ -511,16 +523,18 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (2 octobre 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (2 octobre 2021) :
 Asperula aristata subsp. aristata
 Asperula aristata subsp. calabra (Fiori) Del Guacchio &amp; P.Caputo (2016)
 Asperula aristata subsp. condensata (Heldr. ex Boiss.) Ehrend. &amp; Krendl (1974)
 Asperula aristata subsp. nestia (Rech.f.) Ehrend. &amp; Krendl (1974)
 Asperula aristata subsp. scabra Nyman (1879)
 Asperula aristata subsp. thessala (Boiss. &amp; Heldr.) Hayek (1930)
-Tropicos                                           (2 octobre 2021)[3] (Attention liste brute contenant possiblement des synonymes) :
+Tropicos                                           (2 octobre 2021) (Attention liste brute contenant possiblement des synonymes) :
 Asperula aristata subsp. longiflora (Waldst. &amp; Kit.) Hayek
 Asperula aristata subsp. oreophila (Briq.) Hayek
 Asperula aristata subsp. umbellulata (Reut.) Hayek
@@ -558,7 +572,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. Elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
 </t>
